--- a/medicine/Enfance/Jonas_Lenn/Jonas_Lenn.xlsx
+++ b/medicine/Enfance/Jonas_Lenn/Jonas_Lenn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jonas Lenn est le pseudonyme d'Emmanuel Levilain-Clément, un écrivain de science-fiction de langue française, né le 4 août 1967 au Mans.
 Il débute en publiant des nouvelles dans l'anthologie périodique Étoiles vives, puis dans de très nombreuses revues littéraires (Faëries, Galaxies, Salmigondis, Le Codex Atlanticus). Sa première publication professionnelle est une nouvelle : Le gaucho de Mars en 1997, chez Étoiles vives, no 1. 
@@ -515,9 +527,11 @@
           <t>Processus de création</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jonas Lenn tente de s'approprier les mots et incorpore du vécu à de l'imaginaire. L'écriture l'aide dans la construction de son moi[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jonas Lenn tente de s'approprier les mots et incorpore du vécu à de l'imaginaire. L'écriture l'aide dans la construction de son moi.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Spirale de Lug (roman), La Clef d'Argent, 2005.
 Manhattan Stories (roman), Les moutons électriques, 2006; rééd. Lokomodo, 2012.
@@ -585,7 +601,9 @@
           <t>Traductions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Espagnol
 «Puerta al invierno» (revue Sable 1, Espagne, 2005). Traduction par Fermín Moreno González de «Une porte sur l'hiver» (revue Galaxies 16, mars 2000).
@@ -622,7 +640,9 @@
           <t>Anthologies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Détective de l'impossible (J'ai Lu).
 Emblèmes (L'Oxymore).
@@ -659,7 +679,9 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Prix Spécial du Festival Cyberfiction de Cannes en 1997.
 Prix Infini en 1998.
@@ -692,9 +714,11 @@
           <t>Adaptations au cinéma</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Une Porte sur l'hiver, court-métrage réalisé par Anatole Levilain-Clément en 2017, d'après la nouvelle Une Porte sur l'Hiver (2000)[2].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Une Porte sur l'hiver, court-métrage réalisé par Anatole Levilain-Clément en 2017, d'après la nouvelle Une Porte sur l'Hiver (2000).</t>
         </is>
       </c>
     </row>
